--- a/file.xlsx
+++ b/file.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Ссылка</t>
   </si>
@@ -30,28 +30,22 @@
     <t xml:space="preserve">Наименование продавца</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wildberries.ru/catalog/4390815/detail.aspx?targetUrl=MI</t>
+    <t xml:space="preserve">https://beru.ru/product/bloknot-eksmo-unicorn-note-a5-80-listov/557513082</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wildberries.ru/catalog/7553935/detail.aspx?targetUrl=MI</t>
+    <t xml:space="preserve">https://beru.ru/product/noutbuk-asus-vivobook-15-x542ua-dm749-intel-core-i7-7500u-2700-mhz-15-6-1920x1080-8gb-1000gb-hdd-dvd-rw-intel-hd-graphics-620-wi-fi-bluetooth-endless-os-90nb0f22-m10130-seryi/100439576026</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wildberries.ru/catalog/11798034/detail.aspx?targetUrl=MI</t>
+    <t xml:space="preserve">https://beru.ru/product/mfu-canon-pixma-mg2540s/14256539</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wildberries.ru/catalog/10210357/detail.aspx?targetUrl=MI</t>
+    <t xml:space="preserve">https://beru.ru/product/monitor-asus-vp247hae-23-6-chernyi/100898300666</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wildberries.ru/catalog/10498088/detail.aspx?targetUrl=MI</t>
+    <t xml:space="preserve">https://beru.ru/product/wi-fi-usilitel-signala-repiter-xiaomi-mi-wi-fi-amplifier-pro-chernyi/100399248896</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wildberries.ru/catalog/11645817/detail.aspx?targetUrl=MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.wildberries.ru/catalog/10978789/detail.aspx?targetUrl=MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.wildberries.ru/catalog/8745698/detail.aspx?targetUrl=MI</t>
+    <t xml:space="preserve">https://beru.ru/product/vneshnii-hdd-seagate-expansion-portable-drive-1-tb-chernyi/100324823735</t>
   </si>
 </sst>
 </file>
@@ -61,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -83,12 +77,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -158,7 +146,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,16 +170,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
@@ -199,36 +179,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 10 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2 3 2" xfId="22" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -299,10 +277,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -351,14 +329,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
@@ -424,19 +398,19 @@
       <c r="A30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
@@ -466,10 +440,10 @@
       <c r="A44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
+      <c r="A45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
@@ -559,13 +533,13 @@
       <c r="A75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1"/>
+      <c r="A76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3"/>
+      <c r="A78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1"/>
@@ -610,10 +584,10 @@
       <c r="A92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1"/>
+      <c r="A93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4"/>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1"/>
@@ -622,19 +596,19 @@
       <c r="A96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1"/>
+      <c r="A97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3"/>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1"/>
+      <c r="A100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4"/>
+      <c r="A101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
@@ -688,10 +662,10 @@
       <c r="A118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1"/>
+      <c r="A119" s="3"/>
     </row>
     <row r="120" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3"/>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1"/>
@@ -712,10 +686,10 @@
       <c r="A126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1"/>
+      <c r="A127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="5"/>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1"/>
@@ -733,19 +707,19 @@
       <c r="A133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1"/>
+      <c r="A134" s="3"/>
     </row>
     <row r="135" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3"/>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1"/>
+      <c r="A137" s="3"/>
     </row>
     <row r="138" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="3"/>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1"/>
@@ -790,10 +764,10 @@
       <c r="A152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1"/>
+      <c r="A153" s="3"/>
     </row>
     <row r="154" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="3"/>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1"/>
@@ -913,21 +887,17 @@
       <c r="A193" s="1"/>
     </row>
     <row r="194" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1"/>
-    </row>
-    <row r="195" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="3"/>
-    </row>
+      <c r="A194" s="3"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.wildberries.ru/catalog/4390815/detail.aspx?targetUrl=MI"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.wildberries.ru/catalog/7553935/detail.aspx?targetUrl=MI"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.wildberries.ru/catalog/11798034/detail.aspx?targetUrl=MI"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://www.wildberries.ru/catalog/10210357/detail.aspx?targetUrl=MI"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.wildberries.ru/catalog/10498088/detail.aspx?targetUrl=MI"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.wildberries.ru/catalog/11645817/detail.aspx?targetUrl=MI"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.wildberries.ru/catalog/10978789/detail.aspx?targetUrl=MI"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.wildberries.ru/catalog/8745698/detail.aspx?targetUrl=MI"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://beru.ru/product/bloknot-eksmo-unicorn-note-a5-80-listov/557513082"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://beru.ru/product/noutbuk-asus-vivobook-15-x542ua-dm749-intel-core-i7-7500u-2700-mhz-15-6-1920x1080-8gb-1000gb-hdd-dvd-rw-intel-hd-graphics-620-wi-fi-bluetooth-endless-os-90nb0f22-m10130-seryi/100439576026"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://beru.ru/product/mfu-canon-pixma-mg2540s/14256539"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://beru.ru/product/monitor-asus-vp247hae-23-6-chernyi/100898300666"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://beru.ru/product/wi-fi-usilitel-signala-repiter-xiaomi-mi-wi-fi-amplifier-pro-chernyi/100399248896"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://beru.ru/product/vneshnii-hdd-seagate-expansion-portable-drive-1-tb-chernyi/100324823735"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -22,30 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Ссылка</t>
   </si>
   <si>
-    <t xml:space="preserve">Наименование продавца</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://beru.ru/product/bloknot-eksmo-unicorn-note-a5-80-listov/557513082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://beru.ru/product/noutbuk-asus-vivobook-15-x542ua-dm749-intel-core-i7-7500u-2700-mhz-15-6-1920x1080-8gb-1000gb-hdd-dvd-rw-intel-hd-graphics-620-wi-fi-bluetooth-endless-os-90nb0f22-m10130-seryi/100439576026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://beru.ru/product/mfu-canon-pixma-mg2540s/14256539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://beru.ru/product/monitor-asus-vp247hae-23-6-chernyi/100898300666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://beru.ru/product/wi-fi-usilitel-signala-repiter-xiaomi-mi-wi-fi-amplifier-pro-chernyi/100399248896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://beru.ru/product/vneshnii-hdd-seagate-expansion-portable-drive-1-tb-chernyi/100324823735</t>
+    <t xml:space="preserve">https://beru.ru/catalog/portativnye-radiostantsii/80545</t>
   </si>
 </sst>
 </file>
@@ -55,7 +37,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -77,6 +59,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -170,11 +160,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,19 +173,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -233,7 +227,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF1155CC"/>
+      <rgbColor rgb="FF0563C1"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -251,7 +245,7 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF1155CC"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
@@ -277,10 +271,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:A195"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,243 +288,230 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="3" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
+      <c r="A32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
+      <c r="A47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1"/>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1"/>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1"/>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1"/>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1"/>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
+      <c r="A64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1"/>
+      <c r="A65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1"/>
+      <c r="A66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1"/>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1"/>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
+      <c r="A69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1"/>
+      <c r="A70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1"/>
+      <c r="A71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1"/>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1"/>
+      <c r="A73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1"/>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1"/>
+      <c r="A75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
@@ -539,365 +520,362 @@
       <c r="A77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1"/>
+      <c r="A78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1"/>
+      <c r="A79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1"/>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1"/>
+      <c r="A81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1"/>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1"/>
+      <c r="A83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1"/>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1"/>
+      <c r="A85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1"/>
+      <c r="A86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1"/>
+      <c r="A87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1"/>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1"/>
+      <c r="A89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1"/>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1"/>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1"/>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4"/>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1"/>
+      <c r="A94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1"/>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1"/>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3"/>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1"/>
+      <c r="A98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1"/>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4"/>
+      <c r="A100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1"/>
+      <c r="A101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1"/>
+      <c r="A102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1"/>
+      <c r="A103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1"/>
+      <c r="A104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1"/>
+      <c r="A105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1"/>
+      <c r="A106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1"/>
+      <c r="A107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1"/>
+      <c r="A108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1"/>
+      <c r="A109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1"/>
+      <c r="A110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1"/>
+      <c r="A111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1"/>
+      <c r="A112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1"/>
+      <c r="A113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1"/>
+      <c r="A114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1"/>
+      <c r="A115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1"/>
+      <c r="A116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1"/>
+      <c r="A117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1"/>
+      <c r="A118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3"/>
+      <c r="A119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1"/>
+      <c r="A120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1"/>
+      <c r="A121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1"/>
+      <c r="A122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1"/>
+      <c r="A123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1"/>
+      <c r="A124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1"/>
+      <c r="A125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1"/>
+      <c r="A126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="5"/>
+      <c r="A127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1"/>
+      <c r="A128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1"/>
+      <c r="A129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1"/>
+      <c r="A130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1"/>
+      <c r="A131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1"/>
+      <c r="A132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1"/>
+      <c r="A133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3"/>
+      <c r="A134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1"/>
+      <c r="A135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1"/>
+      <c r="A136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3"/>
+      <c r="A137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1"/>
+      <c r="A138" s="4"/>
     </row>
     <row r="139" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1"/>
+      <c r="A139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1"/>
+      <c r="A140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1"/>
+      <c r="A141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1"/>
+      <c r="A142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1"/>
+      <c r="A143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1"/>
+      <c r="A144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1"/>
+      <c r="A145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1"/>
+      <c r="A146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1"/>
+      <c r="A147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1"/>
+      <c r="A148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1"/>
+      <c r="A149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1"/>
+      <c r="A150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1"/>
+      <c r="A151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1"/>
+      <c r="A152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="3"/>
+      <c r="A153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1"/>
+      <c r="A154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1"/>
+      <c r="A155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1"/>
+      <c r="A156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1"/>
+      <c r="A157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1"/>
+      <c r="A158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1"/>
+      <c r="A159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1"/>
+      <c r="A160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1"/>
+      <c r="A161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1"/>
+      <c r="A162" s="2"/>
     </row>
     <row r="163" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1"/>
+      <c r="A163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1"/>
+      <c r="A164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1"/>
+      <c r="A165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1"/>
+      <c r="A166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1"/>
+      <c r="A167" s="2"/>
     </row>
     <row r="168" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1"/>
+      <c r="A168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1"/>
+      <c r="A169" s="2"/>
     </row>
     <row r="170" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1"/>
+      <c r="A170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1"/>
+      <c r="A171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1"/>
+      <c r="A172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1"/>
+      <c r="A173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1"/>
+      <c r="A174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1"/>
+      <c r="A175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1"/>
+      <c r="A176" s="2"/>
     </row>
     <row r="177" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1"/>
+      <c r="A177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1"/>
+      <c r="A178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1"/>
+      <c r="A179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1"/>
+      <c r="A180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1"/>
+      <c r="A181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1"/>
+      <c r="A182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1"/>
+      <c r="A183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1"/>
+      <c r="A184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1"/>
+      <c r="A185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1"/>
+      <c r="A186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1"/>
+      <c r="A187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1"/>
+      <c r="A188" s="2"/>
     </row>
     <row r="189" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1"/>
+      <c r="A189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1"/>
+      <c r="A190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1"/>
+      <c r="A191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1"/>
+      <c r="A192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1"/>
+      <c r="A193" s="2"/>
     </row>
     <row r="194" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="3"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://beru.ru/product/bloknot-eksmo-unicorn-note-a5-80-listov/557513082"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://beru.ru/product/noutbuk-asus-vivobook-15-x542ua-dm749-intel-core-i7-7500u-2700-mhz-15-6-1920x1080-8gb-1000gb-hdd-dvd-rw-intel-hd-graphics-620-wi-fi-bluetooth-endless-os-90nb0f22-m10130-seryi/100439576026"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://beru.ru/product/mfu-canon-pixma-mg2540s/14256539"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://beru.ru/product/monitor-asus-vp247hae-23-6-chernyi/100898300666"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://beru.ru/product/wi-fi-usilitel-signala-repiter-xiaomi-mi-wi-fi-amplifier-pro-chernyi/100399248896"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://beru.ru/product/vneshnii-hdd-seagate-expansion-portable-drive-1-tb-chernyi/100324823735"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://beru.ru/catalog/portativnye-radiostantsii/80545"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
